--- a/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
+++ b/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
@@ -623,8 +623,8 @@
     </x:i>
   </x:colItems>
   <x:dataFields count="2">
-    <x:dataField name="Sum Amount paid" fld="6" subtotal="sum" showDataAs="normal" baseField="3" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Sum Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="3" baseItem="0" numFmtId="0"/>
+    <x:dataField name="Sum Amount paid" fld="6" subtotal="sum" showDataAs="normal" baseField="3" baseItem="0"/>
+    <x:dataField name="Sum Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="3" baseItem="0"/>
   </x:dataFields>
   <x:formats count="4">
     <x:format dxfId="1">

--- a/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
+++ b/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy=" " refreshedDate="43629.579275115742" refreshedVersion="3" recordCount="4">
+<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy=" " refreshedDate="43629.579275115742" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="4">
   <x:cacheSource type="worksheet">
     <x:worksheetSource ref="B2:H6" sheet="Sheet1"/>
   </x:cacheSource>
